--- a/MedicionRapida/Reportes/ReporteGeneral.xlsx
+++ b/MedicionRapida/Reportes/ReporteGeneral.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\HTDOCS\EncuestaReconstruccion\Reportes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\HTDOCS\EncuestaRapida\MedicionRapida\Reportes\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,51 +24,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>FechaCaptura</t>
   </si>
   <si>
-    <t>Estatus</t>
-  </si>
-  <si>
     <t>Municipio</t>
   </si>
   <si>
     <t>Nombre</t>
   </si>
   <si>
-    <t>Red Social</t>
-  </si>
-  <si>
-    <t>Folio</t>
-  </si>
-  <si>
     <t>Telefono</t>
   </si>
   <si>
-    <t>Domicilio</t>
-  </si>
-  <si>
-    <t>Localidad</t>
-  </si>
-  <si>
-    <t>TipoAccion</t>
-  </si>
-  <si>
-    <t>OtroTelefono</t>
-  </si>
-  <si>
     <t>Estatus Numero</t>
   </si>
   <si>
-    <t>Descrip. RedSocial</t>
-  </si>
-  <si>
-    <t>Comentario</t>
-  </si>
-  <si>
-    <t>Observaciones</t>
+    <t>Principales Necesidades</t>
+  </si>
+  <si>
+    <t>Otras Necesidades</t>
+  </si>
+  <si>
+    <t>Cree que su presidente Municipal o su Diputado podría realizar las gestiones</t>
+  </si>
+  <si>
+    <t>Usted votará por el candidato o por el partido que representa</t>
+  </si>
+  <si>
+    <t>Observaciones de la llamada</t>
   </si>
 </sst>
 </file>
@@ -147,7 +132,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -161,24 +146,15 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -459,50 +435,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19" style="3" customWidth="1"/>
+    <col min="1" max="1" width="20.85546875" style="3" customWidth="1"/>
     <col min="2" max="2" width="20.140625" style="3" customWidth="1"/>
     <col min="3" max="3" width="13.85546875" style="3" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" style="3" customWidth="1"/>
     <col min="5" max="5" width="17.5703125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="22.85546875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="20.5703125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="20.42578125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" style="3" customWidth="1"/>
-    <col min="11" max="11" width="15.7109375" style="6" customWidth="1"/>
-    <col min="12" max="12" width="20.28515625" style="8" customWidth="1"/>
-    <col min="13" max="13" width="15" style="8" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="8" customWidth="1"/>
-    <col min="15" max="15" width="15.28515625" style="8" customWidth="1"/>
-    <col min="16" max="16384" width="11.42578125" style="8"/>
+    <col min="6" max="6" width="27.7109375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="28.5703125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="25.140625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="23.5703125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="17.7109375" style="3" customWidth="1"/>
+    <col min="11" max="16384" width="11.42578125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
+    <row r="1" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="8"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
     </row>
-    <row r="2" spans="1:15" s="9" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" s="6" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -513,56 +479,40 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
-      <c r="K2" s="5"/>
     </row>
-    <row r="3" spans="1:15" s="9" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
+    <row r="3" spans="1:10" s="6" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="D3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="G3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="H3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="I3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="I3" s="10" t="s">
+      <c r="J3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="K3" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="M3" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="N3" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="O3" s="10" t="s">
-        <v>14</v>
-      </c>
     </row>
-    <row r="4" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -573,9 +523,8 @@
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
-      <c r="K4" s="6"/>
     </row>
-    <row r="5" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -586,14 +535,13 @@
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
-      <c r="K5" s="6"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="G9" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
